--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zee/development/CS151_labs/PA1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donovan\PycharmProjects\pythonProject\cs151-pa1-DONVON18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0D32F8-6D7A-7B45-9670-B8699C8948C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D478F2-F169-46BC-81AE-C526FD1CBA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="67920" windowHeight="28300" xr2:uid="{078FF010-DC04-EB46-847F-52BBCCEEE85C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{078FF010-DC04-EB46-847F-52BBCCEEE85C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -34,15 +34,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
   <si>
     <t>You need to create your own tests</t>
+  </si>
+  <si>
+    <t>skills</t>
+  </si>
+  <si>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>secondary</t>
+  </si>
+  <si>
+    <t>tertiary</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>route (y)</t>
+  </si>
+  <si>
+    <t>1. combat</t>
+  </si>
+  <si>
+    <t>2.strength</t>
+  </si>
+  <si>
+    <t>3.speed</t>
+  </si>
+  <si>
+    <t>4.technology</t>
+  </si>
+  <si>
+    <t>5.detective</t>
+  </si>
+  <si>
+    <t>6.agility</t>
+  </si>
+  <si>
+    <t>7.stealth</t>
+  </si>
+  <si>
+    <t>8.escape</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>route(y)</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>joker laughs and die</t>
+  </si>
+  <si>
+    <t>route(n)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -72,11 +138,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -95,9 +162,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -135,7 +202,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -241,7 +308,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -383,7 +450,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -391,15 +458,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF6E1F2-B43E-D343-BB9B-DE90F40B65C5}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="F6" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17:J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,9 +475,682 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" ref="F5:F8" si="0">B5*(C5+D5)^E5</f>
+        <v>640000000</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="2">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>7</v>
+      </c>
+      <c r="M5" s="2">
+        <f>I5*(J7+K12)^L5</f>
+        <v>358318080</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" ref="M6:M8" si="1">I6*(J6+K6)^L6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <f>B9*(C9+D9)^E9</f>
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2">
+        <f>I9*(J9+K9)^L9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" ref="F10:F12" si="2">B10*(C10+D10)^E10</f>
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" ref="M10:M12" si="3">I10*(J10+K10)^L10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>7</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <f>B21*(C21+D21)^E21</f>
+        <v>139968</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" ref="F18:F20" si="4">B18*(C18+D18)^E18</f>
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2">
+        <v>6</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" ref="F22:F24" si="5">B22*(C22+D22)^E22</f>
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="H25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="18">
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H16:K16"/>
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donovan\PycharmProjects\pythonProject\cs151-pa1-DONVON18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D478F2-F169-46BC-81AE-C526FD1CBA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28B1CC0-1C4B-4B18-AC62-D08BB49A0C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{078FF010-DC04-EB46-847F-52BBCCEEE85C}"/>
   </bookViews>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF6E1F2-B43E-D343-BB9B-DE90F40B65C5}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F6" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17:J17"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>18</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>19</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H27" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>20</v>
